--- a/tests/test_data.xlsx
+++ b/tests/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJDELANEY\OneDrive - University of California, San Diego Health\Documents\GitHub\ExcelPostprocessor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{328C55E0-FB99-4C85-8CD4-6CB6EEB0A8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D4BF12EE-572B-43B9-BF57-A8E5301F4BDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801CF33-317A-401D-9CEE-FC3AB063FB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,16 @@
     <t>`pH: 10.82 TDS 282.`</t>
   </si>
   <si>
-    <t>`Date of Exam: 12/25/2000. `LV EF MOD BP: 22% LVIDd: 2.23 cm Right Ventricle: TAPSE (2D): 2.24 cm RV S' Vmax: 2.25 m/s  MV e’ lateral: 2.26 m/s RVSP/PASP: 227 mmHg`</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 12% LVIDd: 1.23 cm Right Ventricle: TAPSE (2D): 1.24 cm RV S' Vmax: 1.25 m/s  MV e’ lateral: 1.26 m/s RVSP/PASP: 127 mmHg`</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 32% LVIDd: 3.23 cm Right Ventricle: TAPSE (2D): 3.24 cm RV S' Vmax: 3.25 m/s  MV e’ lateral: 3.26 m/s RVSP/PASP: 327 mmHg`</t>
-  </si>
-  <si>
     <t>REPORT</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 12% LVIDd: 1.23 cm Right Ventricle: TAPSE (2D): 1.24 cm RV S' Vmax: 1.25 m/s  MV e’ (lateral): 1.26 m/s RVSP/PASP: 127 mmHg`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/2000. `LV EF MOD BP: 22% LVIDd: 2.23 cm Right Ventricle: TAPSE (2D): 2.24 cm RV S' Vmax: 2.25 m/s  MV e’ (lateral): 2.26 m/s RVSP/PASP: 227 mmHg`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 32% LVIDd: 3.23 cm Right Ventricle: TAPSE (2D): 3.24 cm RV S' Vmax: 3.25 m/s  MV e’ (lateral): 3.26 m/s RVSP/PASP: 327 mmHg`</t>
   </si>
 </sst>
 </file>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -437,7 +437,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2"/>
     </row>

--- a/tests/test_data.xlsx
+++ b/tests/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJDELANEY\OneDrive - University of California, San Diego Health\Documents\GitHub\ExcelPostprocessor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801CF33-317A-401D-9CEE-FC3AB063FB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2735B411-8091-4AB0-A2FC-CD27F1208573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05BE035A-C5A2-4B5A-A347-D62C03E793CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -21,30 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>MRN</t>
   </si>
   <si>
-    <t>`pH: 10.8 TDS 280.`</t>
-  </si>
-  <si>
-    <t>`pH: 10.81 TDS 281.`</t>
-  </si>
-  <si>
-    <t>`pH: 10.82 TDS 282.`</t>
-  </si>
-  <si>
     <t>REPORT</t>
   </si>
   <si>
-    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 12% LVIDd: 1.23 cm Right Ventricle: TAPSE (2D): 1.24 cm RV S' Vmax: 1.25 m/s  MV e’ (lateral): 1.26 m/s RVSP/PASP: 127 mmHg`</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 12/25/2000. `LV EF MOD BP: 22% LVIDd: 2.23 cm Right Ventricle: TAPSE (2D): 2.24 cm RV S' Vmax: 2.25 m/s  MV e’ (lateral): 2.26 m/s RVSP/PASP: 227 mmHg`</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 12/25/1999. `LV EF MOD BP: 32% LVIDd: 3.23 cm Right Ventricle: TAPSE (2D): 3.24 cm RV S' Vmax: 3.25 m/s  MV e’ (lateral): 3.26 m/s RVSP/PASP: 327 mmHg`</t>
+    <t>`Date of Exam: 12/25/2005. VL EF MOD BP: 32% LVIDd: 3.23 cm Right Ventricle: TAPSE (2D): 3.24 cm RV S' Vmax: 3.25 m/s  MV e’ (lateral): 3.26 m/s RVSP/PASP: 327 mmHg`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/2001. LV EF MOD BP: 32% LVIDd: 3.23 cm Right Ventricle: TAPSE (2D): 3.24 cm RV S' Vmax: 3.25 m/s  MV e’ (lateral): 3.26 m/s RVSP/PASP: 327 mmHg`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/2000. LV EF MOD BP: 22% LVIDd: 2.23 cm Right Ventricle: TAPSE (2D): 2.24 cm RV S' Vmax: 2.25 m/s  MV e’ (lateral): 2.26 m/s RVSP/PASP: 227 mmHg`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/1999. LV EF MOD BP: 12% LVIDd: 1.23 cm Right Ventricle: TAPSE (2D): 1.24 cm RV S' Vmax: 1.25 m/s  MV e’ (lateral): 1.26 m/s RVSP/PASP: 127 mmHg`</t>
+  </si>
+  <si>
+    <t>pH: 10.8 TDS 280.</t>
+  </si>
+  <si>
+    <t>pH: 10.81 TDS 281.</t>
+  </si>
+  <si>
+    <t>pH: 10.82 TDS 282</t>
+  </si>
+  <si>
+    <t>10.83 pH, TDS 283</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +425,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -437,7 +443,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,7 +451,15 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4567</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -456,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -481,15 +495,15 @@
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2354</v>
+        <v>2345</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,11 +511,315 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4567</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051D8D7DAE46052428E9D6A7CD98694EF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a51519232089beb110182084b94a7f0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xmlns:ns4="316506a1-799f-41d4-8875-9112406e3836" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf592b8703b6352f8bfea39c0e18f540" ns3:_="" ns4:_="">
+    <xsd:import namespace="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f"/>
+    <xsd:import namespace="316506a1-799f-41d4-8875-9112406e3836"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="20" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="316506a1-799f-41d4-8875-9112406e3836" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D70DF8-845C-4D9A-9D49-F2557504C114}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f"/>
+    <ds:schemaRef ds:uri="316506a1-799f-41d4-8875-9112406e3836"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46431E0-3E3F-4AE2-AE9B-B827FA65C906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="316506a1-799f-41d4-8875-9112406e3836"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d49e5ce-37d7-4ef0-89c8-0e8b57491c0f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CF459C-A94D-49F6-BCDD-3C21A2A42432}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>